--- a/2023/week01/data.xlsx
+++ b/2023/week01/data.xlsx
@@ -141,9 +141,6 @@
     <t>(14310-23850]</t>
   </si>
   <si>
-    <t>[23850-Inf)</t>
-  </si>
-  <si>
     <t>income_BRL</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>blacks</t>
+  </si>
+  <si>
+    <t>(23850-Inf)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +568,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -688,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3">
         <v>2105.91</v>
@@ -807,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>6312.01</v>
@@ -926,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3">
         <v>655.96</v>
@@ -1045,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3">
         <v>4136.09</v>
@@ -1164,7 +1164,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E36" s="3">
         <v>288.29000000000002</v>
@@ -1283,7 +1283,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E43" s="3">
         <v>1563.41</v>
@@ -1402,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E50" s="3">
         <v>1418.41</v>
@@ -1521,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E57" s="3">
         <v>642.21</v>
@@ -1640,7 +1640,7 @@
         <v>23</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E64" s="3">
         <v>25.08</v>
@@ -1759,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E71" s="3">
         <v>231.2</v>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E78" s="3">
         <v>986.1</v>
@@ -1997,7 +1997,7 @@
         <v>24</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E85" s="3">
         <v>5871.39</v>
@@ -2116,7 +2116,7 @@
         <v>31</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E92" s="3">
         <v>2702.4</v>
@@ -2235,7 +2235,7 @@
         <v>30</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E99" s="3">
         <v>928.43</v>
@@ -2263,16 +2263,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,10 +2280,10 @@
         <v>2018</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="3">
         <v>5.8082726455108586</v>
@@ -2294,10 +2294,10 @@
         <v>2018</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3">
         <v>6.2133436467873526</v>
@@ -2308,10 +2308,10 @@
         <v>2018</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3">
         <v>7.0185864710662322</v>
@@ -2322,10 +2322,10 @@
         <v>2018</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3">
         <v>8.2085219064885937</v>
@@ -2336,10 +2336,10 @@
         <v>2018</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>9.0087678795345649</v>
@@ -2350,10 +2350,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3">
         <v>10.012457900476941</v>
@@ -2364,10 +2364,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3">
         <v>10.948668965245039</v>
@@ -2378,10 +2378,10 @@
         <v>2018</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3">
         <v>12.274796550648631</v>
@@ -2392,10 +2392,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>14.113669732494492</v>
@@ -2406,10 +2406,10 @@
         <v>2018</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3">
         <v>16.392914301746217</v>
@@ -2420,10 +2420,10 @@
         <v>2018</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3">
         <v>13.214615313573884</v>
@@ -2434,10 +2434,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3">
         <v>12.961175963126696</v>
@@ -2448,10 +2448,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3">
         <v>12.296367629780375</v>
@@ -2462,10 +2462,10 @@
         <v>2018</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3">
         <v>11.39679910306474</v>
@@ -2476,10 +2476,10 @@
         <v>2018</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3">
         <v>10.796024480974706</v>
@@ -2490,10 +2490,10 @@
         <v>2018</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3">
         <v>10.012958865634053</v>
@@ -2504,10 +2504,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3">
         <v>9.3421113610104651</v>
@@ -2518,10 +2518,10 @@
         <v>2018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3">
         <v>8.2369766464206453</v>
@@ -2532,10 +2532,10 @@
         <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3">
         <v>6.795787309525199</v>
@@ -2546,10 +2546,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3">
         <v>4.9471833268866554</v>
